--- a/Mifos Automation Excels/Client/2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-REPAY-AccCL1stFEB-REPAY1stMAR-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-REPAY-AccCL1stFEB-REPAY1stMAR-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Closingdate</t>
   </si>
   <si>
-    <t>2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC</t>
-  </si>
-  <si>
     <t>clickonapprove</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>clickOnConfirm</t>
+  </si>
+  <si>
+    <t>2650-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-ONTIME-ACCOUNTCLOSER-PERIODIC-1st</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -638,15 +638,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="9">
         <v>41640</v>
@@ -654,23 +654,23 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="9">
         <v>41640</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +825,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9">
         <v>41699</v>
@@ -841,10 +841,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -868,7 +868,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>0</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
